--- a/Testcases for APIs.xlsx
+++ b/Testcases for APIs.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0" shapeId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0">
+    <comment ref="E32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="175">
   <si>
     <t>Case No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,6 +1258,13 @@
   </si>
   <si>
     <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The yellow highlight cases are the one can not test due to some reasons.</t>
+  </si>
+  <si>
+    <t>The yellow highlight cases are the one can not test due to some reasons.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1429,7 +1436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,6 +1490,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1511,12 +1553,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1525,34 +1561,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1859,11 +1875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1882,143 +1898,105 @@
     <col min="12" max="12" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="46"/>
+    </row>
+    <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="26"/>
+        <v>97</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+        <v>18</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>93</v>
+      </c>
       <c r="I4" s="13" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>23</v>
@@ -2028,69 +2006,69 @@
       </c>
       <c r="L5" s="12"/>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
       <c r="I6" s="13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>113</v>
       </c>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
       <c r="I7" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>113</v>
       </c>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+        <v>22</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>107</v>
@@ -2100,332 +2078,332 @@
       </c>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="14" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="17" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K11" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="1:12" s="36" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="34" t="s">
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="14" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="17" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K12" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="17" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="34" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="L11" s="35"/>
-    </row>
-    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F14" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H14" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="13" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="5" t="s">
+      <c r="F15" s="31"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J15" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="35"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="F16" s="31"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J16" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A17" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="26"/>
+    <row r="17" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+        <v>120</v>
+      </c>
+      <c r="F17" s="31"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
       <c r="I17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="J17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K19" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A18" s="34" t="s">
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A20" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="17" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F20" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="34" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+        <v>129</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>95</v>
+      </c>
       <c r="I21" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>172</v>
@@ -2434,19 +2412,19 @@
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+        <v>132</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J22" s="13" t="s">
         <v>126</v>
@@ -2456,149 +2434,149 @@
       </c>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A23" s="34" t="s">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" s="12"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L24" s="12"/>
+    </row>
+    <row r="25" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A25" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="17" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="34" t="s">
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B26" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C26" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D26" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F26" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G26" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H26" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J26" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="12"/>
-    </row>
-    <row r="25" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A25" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>171</v>
       </c>
       <c r="L26" s="12"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="J27" s="13" t="s">
+    <row r="27" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A27" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L27" s="12"/>
+      <c r="K27" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="26"/>
+        <v>68</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+        <v>143</v>
+      </c>
+      <c r="F28" s="31"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
       <c r="I28" s="5" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>145</v>
@@ -2608,87 +2586,135 @@
       </c>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A29" s="34" t="s">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A31" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="17" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F31" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="14" t="s">
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J31" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K31" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="L29" s="35"/>
-    </row>
-    <row r="30" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A30" s="34" t="s">
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="17" t="s">
+      <c r="B32" s="34"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F32" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="43" t="s">
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L30" s="35"/>
+      <c r="L32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G2:G11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="G12:G18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="F2:F11"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="H19:H23"/>
-    <mergeCell ref="G24:G30"/>
-    <mergeCell ref="H24:H30"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="D24:D30"/>
-    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B14:B20"/>
+    <mergeCell ref="C14:C20"/>
+    <mergeCell ref="D14:D20"/>
+    <mergeCell ref="B4:B13"/>
+    <mergeCell ref="C4:C13"/>
+    <mergeCell ref="D4:D13"/>
+    <mergeCell ref="G4:G13"/>
+    <mergeCell ref="H4:H13"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G20"/>
+    <mergeCell ref="H14:H20"/>
+    <mergeCell ref="F4:F13"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G21:G25"/>
+    <mergeCell ref="H21:H25"/>
+    <mergeCell ref="G26:G32"/>
+    <mergeCell ref="H26:H32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://127.0.0.1:8080/api/v1/signupsrv/signup"/>
-    <hyperlink ref="D19" r:id="rId3"/>
-    <hyperlink ref="D12" r:id="rId4"/>
+    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2" display="http://127.0.0.1:8080/api/v1/signupsrv/signup"/>
+    <hyperlink ref="D21" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -2763,25 +2789,25 @@
       <c r="A2" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="38" t="s">
         <v>79</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="32" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2795,43 +2821,43 @@
       </c>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="5" t="s">
         <v>152</v>
       </c>
@@ -2847,15 +2873,15 @@
       <c r="A5" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="5" t="s">
         <v>151</v>
       </c>
@@ -2871,15 +2897,15 @@
       <c r="A6" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="5" t="s">
         <v>153</v>
       </c>
@@ -2891,49 +2917,49 @@
       </c>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="s">
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A8" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3021,25 +3047,25 @@
       <c r="A2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="38" t="s">
         <v>165</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="32" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -3052,26 +3078,26 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="36" customFormat="1" ht="30" x14ac:dyDescent="0.15">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:12" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.15">
+      <c r="A3" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="26"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="14" t="s">
         <v>66</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="27" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3079,15 +3105,15 @@
       <c r="A4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="5" t="s">
         <v>152</v>
       </c>
@@ -3102,15 +3128,15 @@
       <c r="A5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="26"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="5" t="s">
         <v>151</v>
       </c>
@@ -3125,15 +3151,15 @@
       <c r="A6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="26"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="5" t="s">
         <v>153</v>
       </c>
@@ -3148,17 +3174,17 @@
       <c r="A7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="26"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="17" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
       <c r="I7" s="14" t="s">
         <v>51</v>
       </c>
@@ -3171,9 +3197,9 @@
       <c r="A8" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="17" t="s">
         <v>39</v>
       </c>
@@ -3186,12 +3212,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="F2:F6"/>
     <mergeCell ref="D2:D8"/>
     <mergeCell ref="C2:C8"/>
-    <mergeCell ref="B2:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
